--- a/Mifos Automation Excels/Client/4574-RBI-ACT2CTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-Make-lessRepay-09JAN-SPDUEDATE10JAN-PRODUCTIVE_COLLSHEETON16JAN.xlsx
+++ b/Mifos Automation Excels/Client/4574-RBI-ACT2CTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-Make-lessRepay-09JAN-SPDUEDATE10JAN-PRODUCTIVE_COLLSHEETON16JAN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>submittedon</t>
   </si>
@@ -122,9 +117,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -158,9 +150,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -297,17 +286,20 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,10 +321,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -363,56 +359,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,15 +385,12 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -454,15 +402,18 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,26 +507,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,23 +542,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -827,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -864,7 +781,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -872,15 +789,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5">
         <v>42005</v>
@@ -888,31 +805,31 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="21">
+        <v>86</v>
+      </c>
+      <c r="B11" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -920,7 +837,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -947,11 +864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>67</v>
+      <c r="A1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -995,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1040,7 +957,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,32 +966,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>47</v>
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>51</v>
+      <c r="A2" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="4">
         <v>42020</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>70</v>
+      <c r="A3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>59</v>
+      <c r="A4" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1082,7 +999,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1090,7 +1007,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1106,7 +1023,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,24 +1073,24 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B7" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="B8" s="10">
         <v>42014</v>
@@ -1189,15 +1106,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10">
         <v>42005</v>
@@ -1205,23 +1122,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10">
         <v>42006</v>
@@ -1229,10 +1146,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1244,107 +1161,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="22">
-        <v>1547.52</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="22">
-        <v>8452.48</v>
-      </c>
-      <c r="F2" s="22">
-        <v>8452.48</v>
+      <c r="B2" s="19">
+        <v>1647.52</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>8352.48</v>
+      </c>
+      <c r="F2" s="19">
+        <v>8352.48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>150.63999999999999</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>44.26</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>106.38</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>106.38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>100</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>100</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1366,613 +1283,623 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="16">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>42006</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>10000</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>42013</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>42020</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="13">
+      <c r="E3" s="25"/>
+      <c r="F3" s="12">
         <v>822.81</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>9177.19</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>23.08</v>
       </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
         <v>845.89</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>845.89</v>
       </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
         <v>345.89</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>42020</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="13">
+        <v>42020</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="12">
         <v>824.71</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>8352.48</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>21.18</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>100</v>
       </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>945.89</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
+        <v>945.89</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42027</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>826.62</v>
+      </c>
+      <c r="G5" s="19">
+        <v>7525.86</v>
+      </c>
+      <c r="H5" s="12">
+        <v>19.27</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
         <v>845.89</v>
       </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
-        <v>42027</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <v>826.62</v>
-      </c>
-      <c r="G5" s="22">
-        <v>7525.86</v>
-      </c>
-      <c r="H5" s="13">
-        <v>19.27</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="C6" s="13">
+        <v>42034</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <v>828.52</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6697.34</v>
+      </c>
+      <c r="H6" s="12">
+        <v>17.37</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
         <v>845.89</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
-        <v>42034</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <v>828.52</v>
-      </c>
-      <c r="G6" s="22">
-        <v>6697.34</v>
-      </c>
-      <c r="H6" s="13">
-        <v>17.37</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="C7" s="13">
+        <v>42041</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>830.43</v>
+      </c>
+      <c r="G7" s="19">
+        <v>5866.91</v>
+      </c>
+      <c r="H7" s="12">
+        <v>15.46</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
         <v>845.89</v>
       </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
-        <v>42041</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
-        <v>830.43</v>
-      </c>
-      <c r="G7" s="22">
-        <v>5866.91</v>
-      </c>
-      <c r="H7" s="13">
-        <v>15.46</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="C8" s="13">
+        <v>42048</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <v>832.35</v>
+      </c>
+      <c r="G8" s="19">
+        <v>5034.5600000000004</v>
+      </c>
+      <c r="H8" s="12">
+        <v>13.54</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
         <v>845.89</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
-        <v>42048</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
-        <v>832.35</v>
-      </c>
-      <c r="G8" s="22">
-        <v>5034.5600000000004</v>
-      </c>
-      <c r="H8" s="13">
-        <v>13.54</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42055</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>834.27</v>
+      </c>
+      <c r="G9" s="19">
+        <v>4200.29</v>
+      </c>
+      <c r="H9" s="12">
+        <v>11.62</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
         <v>845.89</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="C10" s="13">
+        <v>42062</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>836.2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3364.09</v>
+      </c>
+      <c r="H10" s="12">
+        <v>9.69</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>845.89</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
-        <v>42055</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>834.27</v>
-      </c>
-      <c r="G9" s="22">
-        <v>4200.29</v>
-      </c>
-      <c r="H9" s="13">
-        <v>11.62</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="C11" s="13">
+        <v>42069</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>838.13</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2525.96</v>
+      </c>
+      <c r="H11" s="12">
+        <v>7.76</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
         <v>845.89</v>
       </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
-        <v>42062</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>836.2</v>
-      </c>
-      <c r="G10" s="22">
-        <v>3364.09</v>
-      </c>
-      <c r="H10" s="13">
-        <v>9.69</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="C12" s="13">
+        <v>42076</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>840.06</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1685.9</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5.83</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
         <v>845.89</v>
       </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="16">
-        <v>42069</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>838.13</v>
-      </c>
-      <c r="G11" s="22">
-        <v>2525.96</v>
-      </c>
-      <c r="H11" s="13">
-        <v>7.76</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="C13" s="13">
+        <v>42083</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>842</v>
+      </c>
+      <c r="G13" s="12">
+        <v>843.9</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.89</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
         <v>845.89</v>
       </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
         <v>845.89</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
-        <v>42076</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <v>840.06</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1685.9</v>
-      </c>
-      <c r="H12" s="13">
-        <v>5.83</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>845.89</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16">
-        <v>42083</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>842</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="C14" s="13">
+        <v>42090</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>843.9</v>
       </c>
-      <c r="H13" s="13">
-        <v>3.89</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <v>845.89</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16">
-        <v>42090</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>843.9</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>1.95</v>
       </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
         <v>845.85</v>
       </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12">
         <v>845.85</v>
       </c>
     </row>
@@ -1986,142 +1913,146 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>633</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="C2" s="13">
+        <v>42020</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1291.78</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1170.5999999999999</v>
+      </c>
+      <c r="G2" s="12">
+        <v>21.18</v>
+      </c>
+      <c r="H2" s="12">
+        <v>100</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>8352.48</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>631</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42013</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="12">
+        <v>500</v>
+      </c>
+      <c r="F3" s="12">
+        <v>476.92</v>
+      </c>
+      <c r="G3" s="12">
+        <v>23.08</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>9523.08</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>628</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13">
+        <v>42006</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>398</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="16">
-        <v>42020</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1191.78</v>
-      </c>
-      <c r="F2" s="22">
-        <v>1070.5999999999999</v>
-      </c>
-      <c r="G2" s="13">
-        <v>21.18</v>
-      </c>
-      <c r="H2" s="13">
-        <v>100</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>8452.48</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>397</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="16">
-        <v>42013</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="13">
-        <v>500</v>
-      </c>
-      <c r="F3" s="13">
-        <v>476.92</v>
-      </c>
-      <c r="G3" s="13">
-        <v>23.08</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>9523.08</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>394</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="16">
-        <v>42006</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10000</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>10000</v>
       </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2140,25 +2071,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="24">
+        <v>63</v>
+      </c>
+      <c r="B2" s="20">
         <v>42013</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="25">
+        <v>64</v>
+      </c>
+      <c r="B3" s="21">
         <v>500</v>
       </c>
     </row>
